--- a/6/1/1/3/6/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/6/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10747,6 +10750,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="176" spans="1:18">
+      <c r="A176" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176">
+        <v>-164</v>
+      </c>
+      <c r="C176">
+        <v>-164</v>
+      </c>
+      <c r="D176">
+        <v>1156</v>
+      </c>
+      <c r="E176">
+        <v>1320</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>2477</v>
+      </c>
+      <c r="J176">
+        <v>2477</v>
+      </c>
+      <c r="K176">
+        <v>13</v>
+      </c>
+      <c r="L176">
+        <v>232</v>
+      </c>
+      <c r="M176">
+        <v>695</v>
+      </c>
+      <c r="N176">
+        <v>332</v>
+      </c>
+      <c r="O176">
+        <v>1106</v>
+      </c>
+      <c r="P176">
+        <v>99</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/6/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/6/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10806,6 +10809,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="177" spans="1:18">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177">
+        <v>-40</v>
+      </c>
+      <c r="C177">
+        <v>-40</v>
+      </c>
+      <c r="D177">
+        <v>1291</v>
+      </c>
+      <c r="E177">
+        <v>1332</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>2623</v>
+      </c>
+      <c r="J177">
+        <v>2623</v>
+      </c>
+      <c r="K177">
+        <v>38</v>
+      </c>
+      <c r="L177">
+        <v>228</v>
+      </c>
+      <c r="M177">
+        <v>691</v>
+      </c>
+      <c r="N177">
+        <v>404</v>
+      </c>
+      <c r="O177">
+        <v>1169</v>
+      </c>
+      <c r="P177">
+        <v>94</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/6/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/6/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10865,6 +10868,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="178" spans="1:18">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178">
+        <v>-43</v>
+      </c>
+      <c r="C178">
+        <v>-43</v>
+      </c>
+      <c r="D178">
+        <v>1465</v>
+      </c>
+      <c r="E178">
+        <v>1508</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>2973</v>
+      </c>
+      <c r="J178">
+        <v>2973</v>
+      </c>
+      <c r="K178">
+        <v>88</v>
+      </c>
+      <c r="L178">
+        <v>238</v>
+      </c>
+      <c r="M178">
+        <v>907</v>
+      </c>
+      <c r="N178">
+        <v>385</v>
+      </c>
+      <c r="O178">
+        <v>1220</v>
+      </c>
+      <c r="P178">
+        <v>136</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
